--- a/Mifos Automation Excels/Loan Product/2650-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-ACCOUNTCLOSER-PERIODIC-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/2650-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-ACCOUNTCLOSER-PERIODIC-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
@@ -224,7 +224,7 @@
     <t>Overdue/Due Fee/Int,Principal</t>
   </si>
   <si>
-    <t>2650-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-ACCOUNTCLOSER-PERIODIC-Loanproduct</t>
+    <t>2650-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-ACCOUNTCLOSER-PERIODIC</t>
   </si>
 </sst>
 </file>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
